--- a/biology/Médecine/Généthon/Généthon.xlsx
+++ b/biology/Médecine/Généthon/Généthon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9thon</t>
+          <t>Généthon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laboratoire Généthon, situé à Évry (Essonne), a été créé par l'Association française contre les myopathies en 1990, sur une idée du professeur Daniel Cohen concernant la cartographie du génome humain. Issu d'un accord entre une association de malades et le Centre d'étude du polymorphisme humain (CEPH) de Jean Dausset, ce laboratoire pionnier du déchiffrage du génome humain et de la découverte des gènes responsables des maladies génétiques, s'est développé vers la conception, le développement et la production de médicaments de thérapie génique pour les maladies rares.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9thon</t>
+          <t>Généthon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Travaux et recherches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1990-1992 : Généthon I – Les premières cartographies du génome humain
 1993-1996 : Généthon II – Les découvreurs de gènesDans les années 1990, les travaux du Généthon ont contribué à comprendre et décrypter le génome humain.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9thon</t>
+          <t>Généthon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,12 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2014, le budget global de Généthon est d'environ 33 millions d'euros, financés à environ 73 % par l'AFM-Téléthon.
-En 2016, le Généthon transfère ses activités de productions de vecteurs viraux dans une nouvelle société dénommée Yposkesi avec le soutien de la BPI-France[2].
+En 2016, le Généthon transfère ses activités de productions de vecteurs viraux dans une nouvelle société dénommée Yposkesi avec le soutien de la BPI-France.
 </t>
         </is>
       </c>
